--- a/配置表/全局多语言.xlsx
+++ b/配置表/全局多语言.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="14595" activeTab="1"/>
+    <workbookView windowWidth="23280" windowHeight="13005"/>
   </bookViews>
   <sheets>
-    <sheet name="t_label" sheetId="1" r:id="rId1"/>
-    <sheet name="t_texture" sheetId="4" r:id="rId2"/>
+    <sheet name="c_label" sheetId="1" r:id="rId1"/>
+    <sheet name="c_texture" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1005,10 +1005,10 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1070,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="2:4">
+    <row r="5" spans="2:4">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1093,8 +1093,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
